--- a/output/Clustering/fish and scats/clust_PCs_validity_measures_both_clean_coda_rob_k3_ward.xlsx
+++ b/output/Clustering/fish and scats/clust_PCs_validity_measures_both_clean_coda_rob_k3_ward.xlsx
@@ -413,22 +413,22 @@
         <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>2.235</v>
+        <v>2.036</v>
       </c>
       <c r="E2" t="n">
-        <v>1.325</v>
+        <v>0.966</v>
       </c>
       <c r="F2" t="n">
-        <v>1.236</v>
+        <v>0.881</v>
       </c>
       <c r="G2" t="n">
-        <v>0.723</v>
+        <v>0.791</v>
       </c>
       <c r="H2" t="n">
-        <v>5.962</v>
+        <v>5.872</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>1.523</v>
+        <v>1.193</v>
       </c>
       <c r="E3" t="n">
-        <v>3.396</v>
+        <v>3.022</v>
       </c>
       <c r="F3" t="n">
-        <v>3.247</v>
+        <v>2.886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.179</v>
+        <v>0.248</v>
       </c>
       <c r="H3" t="n">
-        <v>4.935</v>
+        <v>4.885</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>1.523</v>
+        <v>1.193</v>
       </c>
       <c r="E4" t="n">
-        <v>2.381</v>
+        <v>2.21</v>
       </c>
       <c r="F4" t="n">
-        <v>2.282</v>
+        <v>2.167</v>
       </c>
       <c r="G4" t="n">
-        <v>0.502</v>
+        <v>0.557</v>
       </c>
       <c r="H4" t="n">
-        <v>6.305</v>
+        <v>6.378</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
